--- a/ePhone_prices.xlsx
+++ b/ePhone_prices.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Travis\TrilogyCE\Module 2 Unit Assessment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyobu\Desktop\Analysis Projects\Excel-VBA-Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6CAB0A-4633-40DA-887E-FD9FC2150085}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA0861E-A8EE-406A-AD56-E3C13F8FA64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10110" xr2:uid="{955846E5-D8D2-400F-BFFA-59BDD5954BBE}"/>
+    <workbookView xWindow="10755" yWindow="-11145" windowWidth="9600" windowHeight="4950" activeTab="1" xr2:uid="{955846E5-D8D2-400F-BFFA-59BDD5954BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="ePhone Price List" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,6 +24,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Item</t>
   </si>
@@ -54,6 +59,12 @@
   </si>
   <si>
     <t>ePhone 4s mini</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -425,15 +436,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B53051-C943-4A85-BB5A-75987A971D8A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -450,7 +463,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -459,7 +472,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -468,7 +481,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -477,7 +490,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -486,11 +499,13 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>850</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -498,4 +513,37 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA57B075-4851-4665-8D82-144E75B8BBB4}">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE('ePhone Price List'!B:B)</f>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <f>MEDIAN('ePhone Price List'!B:B)</f>
+        <v>750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>